--- a/homework2/mlrose-master/output/FourPeaks/sa__FourPeaks__run_stats_df.xlsx
+++ b/homework2/mlrose-master/output/FourPeaks/sa__FourPeaks__run_stats_df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoyal\github\ml_7641\homework2\mlrose-master\output\FourPeaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07407C6-E46B-4125-A06C-D1058320458D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0BC3CA-75DC-43A4-95D6-9A58C2693EA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="31">
   <si>
     <t>Iteration</t>
   </si>
@@ -101,9 +101,6 @@
     <t>[0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>Sum of Fitness</t>
-  </si>
-  <si>
     <t>Sum of Time</t>
   </si>
   <si>
@@ -112,11 +109,20 @@
   <si>
     <t>Grand Total</t>
   </si>
+  <si>
+    <t>Max of Fitness</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Decay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +439,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -549,6 +561,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -594,12 +630,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -660,7 +702,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Xiaoyan Liu" refreshedDate="44114.682296643521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Xiaoyan Liu" refreshedDate="44114.682296643521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30" xr:uid="{00000000-000A-0000-FFFF-FFFF12000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:L31" sheet="sa__FourPeaks__run_stats_df"/>
   </cacheSource>
@@ -1114,8 +1156,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0A32B8B-1559-4CC0-BD55-97D6B7839577}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Temp">
+  <location ref="B23:D34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -1193,7 +1235,102 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Sum of Fitness" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Max of Fitness" fld="1" subtotal="max" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Time" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable7" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Temp">
+  <location ref="B3:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Max of Fitness" fld="1" subtotal="max" baseField="0" baseItem="0"/>
     <dataField name="Sum of Time" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1504,150 +1641,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.18698050000023136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2577128000001494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.33644260000005421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.26403919999995618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>250</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.31981710000013597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61618010000017798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.39606390000005753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.35982779999994768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.3924136000001674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.44984910000016476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C14" s="1">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3.5793267000010425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.05</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.7083651000430071</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.18698050000023136</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>38</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.18698050000023136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.2577128000001494</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6">
+        <v>36</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.2577128000001494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.33644260000005421</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G26" s="6">
+        <v>50</v>
+      </c>
+      <c r="H26" s="6">
+        <v>25</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.33644260000005421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.26403919999995618</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="6">
+        <v>11</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.39606390000005753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>250</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.31981710000013597</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G28" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="6">
+        <v>13</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.44984910000016476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>500</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.61618010000017798</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>31</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1.7083651000430071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.39606390000005753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.35982779999994768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.3924136000001674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.44984910000016476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1">
+        <v>38</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.5793267000010425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>0.05</v>
+      </c>
+      <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.18698050000023136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.2577128000001494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.33644260000005421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.26403919999995618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>250</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.31981710000013597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>500</v>
-      </c>
-      <c r="B9" s="1">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.61618010000017798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.39606390000005753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>2500</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.35982779999994768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="B12" s="1">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.3924136000001674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="B13" s="1">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.44984910000016476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1">
-        <v>230</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3.579326700001042</v>
+      <c r="C36">
+        <v>1.7083651000430071</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
